--- a/files_for_tests/test_import.xlsx
+++ b/files_for_tests/test_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\_python\_pycharm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\_python\_pycharm\WorkWithPythonDict\files_for_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E74995E-9EBB-40ED-A55D-4773EC95FFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253F9E55-0127-45C8-BFD0-ACF36EE0C3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>#</t>
   </si>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>first</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>22,2</t>
+  </si>
+  <si>
+    <t>12.3</t>
   </si>
 </sst>
 </file>
@@ -77,11 +89,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -384,15 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,19 +418,31 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>22.2</v>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>123</v>
+      </c>
+      <c r="F2">
+        <v>12.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -426,6 +451,9 @@
       </c>
       <c r="D3" t="s">
         <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
